--- a/documents/teacher/Che1.xlsx
+++ b/documents/teacher/Che1.xlsx
@@ -361,7 +361,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -388,22 +388,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -415,7 +415,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -430,19 +430,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -491,7 +491,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -533,12 +533,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/documents/teacher/Che1.xlsx
+++ b/documents/teacher/Che1.xlsx
@@ -366,7 +366,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -410,12 +410,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -464,17 +464,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -491,34 +491,34 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -533,19 +533,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">

--- a/documents/teacher/Che1.xlsx
+++ b/documents/teacher/Che1.xlsx
@@ -366,7 +366,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -403,7 +403,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -425,19 +425,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -457,29 +457,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -511,14 +511,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -538,21 +538,21 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>0</t>
@@ -565,7 +565,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/documents/teacher/Che1.xlsx
+++ b/documents/teacher/Che1.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -361,7 +361,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -388,7 +388,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -398,7 +398,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -430,19 +430,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -452,7 +452,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -464,7 +464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -474,39 +474,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -518,12 +518,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -560,24 +560,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -587,10 +587,37 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
